--- a/backend/content/template1.xlsx
+++ b/backend/content/template1.xlsx
@@ -60,21 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hora de Saida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;@~yTuBFH4YQ3+knTaoQgD+Iw==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-29</t>
   </si>
 </sst>
 </file>
@@ -457,84 +442,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/content/template1.xlsx
+++ b/backend/content/template1.xlsx
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hora de Saida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:00:00</t>
   </si>
 </sst>
 </file>
@@ -442,6 +445,223 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
